--- a/2021/FSARanking2021.xlsx
+++ b/2021/FSARanking2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7750946E-BB08-4A2E-AD4A-E817AB8F3439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66AE1D0-839B-463F-83E1-8B03843314CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="855" windowWidth="14370" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4896" uniqueCount="445">
   <si>
     <t>Ranking</t>
   </si>
@@ -1296,6 +1296,90 @@
   <si>
     <t>QLD</t>
   </si>
+  <si>
+    <t>Doolan</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Sage-Hoff</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Guan</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Keira</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Lachlan</t>
+  </si>
+  <si>
+    <t>Minyaev</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Lucas-Elliott</t>
+  </si>
+  <si>
+    <t>Indy</t>
+  </si>
+  <si>
+    <t>Reuben</t>
+  </si>
+  <si>
+    <t>Amelie</t>
+  </si>
+  <si>
+    <t>Ryntjes</t>
+  </si>
+  <si>
+    <t>Amon</t>
+  </si>
+  <si>
+    <t>Edmund</t>
+  </si>
+  <si>
+    <t>Eckermann</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Marley</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+  </si>
+  <si>
+    <t>Bruer</t>
+  </si>
+  <si>
+    <t>Edison</t>
+  </si>
+  <si>
+    <t>Sinclair</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Northey</t>
+  </si>
 </sst>
 </file>
 
@@ -1645,8 +1729,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q520" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q520" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q583" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:Q583" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q447">
     <sortCondition ref="E2:E447"/>
     <sortCondition ref="H2:H447"/>
@@ -1714,8 +1798,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H213" totalsRowShown="0">
-  <autoFilter ref="A1:H213" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H236" totalsRowShown="0">
+  <autoFilter ref="A1:H236" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H206">
     <sortCondition ref="A2:A206"/>
     <sortCondition ref="B2:B206"/>
@@ -2075,11 +2159,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q525"/>
+  <dimension ref="A1:Q583"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A514" sqref="A514"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P580" sqref="P580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6774,7 +6858,7 @@
       </c>
       <c r="M77" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N77" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -6835,7 +6919,7 @@
       </c>
       <c r="M78" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -6957,7 +7041,7 @@
       </c>
       <c r="M80" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N80" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7079,7 +7163,7 @@
       </c>
       <c r="M82" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N82" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7140,7 +7224,7 @@
       </c>
       <c r="M83" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N83" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7323,7 +7407,7 @@
       </c>
       <c r="M86" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N86" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7506,7 +7590,7 @@
       </c>
       <c r="M89" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7750,7 +7834,7 @@
       </c>
       <c r="M93" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N93" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8055,7 +8139,7 @@
       </c>
       <c r="M98" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N98" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8238,7 +8322,7 @@
       </c>
       <c r="M101" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N101" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8299,7 +8383,7 @@
       </c>
       <c r="M102" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N102" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8604,7 +8688,7 @@
       </c>
       <c r="M107" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N107" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8726,7 +8810,7 @@
       </c>
       <c r="M109" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N109" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8787,7 +8871,7 @@
       </c>
       <c r="M110" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N110" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8848,7 +8932,7 @@
       </c>
       <c r="M111" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N111" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -11827,7 +11911,7 @@
       </c>
       <c r="M160" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N160" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -11888,7 +11972,7 @@
       </c>
       <c r="M161" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N161" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12010,7 +12094,7 @@
       </c>
       <c r="M163" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N163" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12376,7 +12460,7 @@
       </c>
       <c r="M169" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N169" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12559,7 +12643,7 @@
       </c>
       <c r="M172" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N172" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12620,7 +12704,7 @@
       </c>
       <c r="M173" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N173" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12742,7 +12826,7 @@
       </c>
       <c r="M175" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N175" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12803,7 +12887,7 @@
       </c>
       <c r="M176" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N176" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12925,7 +13009,7 @@
       </c>
       <c r="M178" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N178" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12986,7 +13070,7 @@
       </c>
       <c r="M179" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N179" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13108,7 +13192,7 @@
       </c>
       <c r="M181" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N181" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13474,7 +13558,7 @@
       </c>
       <c r="M187" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N187" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13535,7 +13619,7 @@
       </c>
       <c r="M188" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N188" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13596,7 +13680,7 @@
       </c>
       <c r="M189" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N189" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13657,7 +13741,7 @@
       </c>
       <c r="M190" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N190" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13718,7 +13802,7 @@
       </c>
       <c r="M191" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N191" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13840,7 +13924,7 @@
       </c>
       <c r="M193" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N193" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29662,7 +29746,7 @@
         <v>3</v>
       </c>
       <c r="D454" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E454" s="24">
         <v>44486</v>
@@ -29702,11 +29786,11 @@
       </c>
       <c r="P454" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q454" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455" spans="1:17" x14ac:dyDescent="0.25">
@@ -29720,7 +29804,7 @@
         <v>3</v>
       </c>
       <c r="D455" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E455" s="24">
         <v>44486</v>
@@ -29761,11 +29845,11 @@
       </c>
       <c r="P455" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q455" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456" spans="1:17" x14ac:dyDescent="0.25">
@@ -33576,74 +33660,3665 @@
       </c>
     </row>
     <row r="520" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A520" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B520" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C520" s="3">
+        <v>1</v>
+      </c>
       <c r="D520" s="13">
+        <v>4</v>
+      </c>
+      <c r="E520" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F520" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G520" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H520" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I520" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J520" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K520" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L520" s="29">
+        <v>1</v>
+      </c>
+      <c r="M520" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N520" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O520" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L520=0,VLOOKUP(C520,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C520,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P520" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q520" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A521" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C521" s="3">
+        <v>2</v>
+      </c>
+      <c r="D521" s="13">
+        <v>4</v>
+      </c>
+      <c r="E521" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F521" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G521" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H521" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I521" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J521" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K521" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L521" s="29">
+        <v>1</v>
+      </c>
+      <c r="M521" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N521" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O521" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L521=0,VLOOKUP(C521,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C521,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P521" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q521" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A522" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B522" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C522" s="3">
+        <v>3</v>
+      </c>
+      <c r="D522" s="13">
+        <v>4</v>
+      </c>
+      <c r="E522" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F522" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G522" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H522" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I522" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J522" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K522" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L522" s="29">
+        <v>1</v>
+      </c>
+      <c r="M522" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N522" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O522" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L522=0,VLOOKUP(C522,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C522,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P522" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q522" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A523" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C523" s="3">
+        <v>3</v>
+      </c>
+      <c r="D523" s="13">
+        <v>4</v>
+      </c>
+      <c r="E523" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F523" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G523" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H523" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I523" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J523" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K523" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>PG</v>
+      </c>
+      <c r="L523" s="29">
+        <v>1</v>
+      </c>
+      <c r="M523" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N523" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O523" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L523=0,VLOOKUP(C523,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C523,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P523" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q523" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A524" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B524" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C524" s="3">
+        <v>1</v>
+      </c>
+      <c r="D524" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E524" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F524" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G524" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H524" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I524" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J524" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K524" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L524" s="29">
+        <v>1</v>
+      </c>
+      <c r="M524" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N524" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O524" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L524=0,VLOOKUP(C524,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C524,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P524" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q524" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A525" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C525" s="3">
+        <v>2</v>
+      </c>
+      <c r="D525" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E525" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F525" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G525" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H525" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I525" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J525" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K525" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L525" s="29">
+        <v>1</v>
+      </c>
+      <c r="M525" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N525" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O525" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L525=0,VLOOKUP(C525,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C525,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P525" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q525" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A526" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B526" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C526" s="3">
+        <v>3</v>
+      </c>
+      <c r="D526" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E526" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F526" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G526" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H526" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I526" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J526" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K526" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L526" s="27">
+        <v>1</v>
+      </c>
+      <c r="M526" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N526" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O526" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L526=0,VLOOKUP(C526,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C526,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P526" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q526" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A527" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B527" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C527" s="3">
+        <v>3</v>
+      </c>
+      <c r="D527" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E527" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F527" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G527" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H527" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I527" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J527" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K527" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L527" s="27">
+        <v>1</v>
+      </c>
+      <c r="M527" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N527" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O527" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L527=0,VLOOKUP(C527,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C527,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P527" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q527" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A528" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B528" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C528" s="3">
+        <v>5</v>
+      </c>
+      <c r="D528" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E528" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F528" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G528" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H528" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I528" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J528" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K528" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L528" s="27">
+        <v>1</v>
+      </c>
+      <c r="M528" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N528" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O528" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L528=0,VLOOKUP(C528,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C528,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P528" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q528" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="529" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A529" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C529" s="3">
+        <v>6</v>
+      </c>
+      <c r="D529" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E529" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F529" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G529" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H529" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I529" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J529" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K529" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L529" s="27">
+        <v>1</v>
+      </c>
+      <c r="M529" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N529" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O529" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L529=0,VLOOKUP(C529,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C529,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P529" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q529" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="530" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A530" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C530" s="3">
+        <v>7</v>
+      </c>
+      <c r="D530" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E530" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F530" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G530" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H530" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I530" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J530" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K530" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L530" s="27">
+        <v>1</v>
+      </c>
+      <c r="M530" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N530" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O530" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L530=0,VLOOKUP(C530,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C530,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P530" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q530" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A531" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B531" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C531" s="3">
+        <v>1</v>
+      </c>
+      <c r="D531" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E531" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F531" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G531" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H531" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I531" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J531" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K531" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L531" s="27">
+        <v>1</v>
+      </c>
+      <c r="M531" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N531" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O531" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L531=0,VLOOKUP(C531,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C531,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P531" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q531" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="532" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A532" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B532" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C532" s="3">
+        <v>2</v>
+      </c>
+      <c r="D532" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E532" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F532" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G532" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H532" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I532" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J532" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K532" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L532" s="27">
+        <v>1</v>
+      </c>
+      <c r="M532" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N532" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O532" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L532=0,VLOOKUP(C532,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C532,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P532" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q532" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="533" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A533" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C533" s="3">
+        <v>3</v>
+      </c>
+      <c r="D533" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E533" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F533" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G533" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H533" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I533" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J533" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K533" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L533" s="27">
+        <v>1</v>
+      </c>
+      <c r="M533" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N533" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O533" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L533=0,VLOOKUP(C533,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C533,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P533" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q533" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="534" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A534" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B534" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C534" s="3">
+        <v>3</v>
+      </c>
+      <c r="D534" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E534" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F534" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G534" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H534" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I534" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J534" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K534" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L534" s="27">
+        <v>1</v>
+      </c>
+      <c r="M534" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N534" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O534" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L534=0,VLOOKUP(C534,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C534,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P534" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q534" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="535" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A535" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B535" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C535" s="3">
+        <v>5</v>
+      </c>
+      <c r="D535" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E535" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F535" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G535" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H535" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I535" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J535" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K535" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L535" s="27">
+        <v>1</v>
+      </c>
+      <c r="M535" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N535" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O535" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L535=0,VLOOKUP(C535,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C535,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P535" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q535" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="536" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A536" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B536" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C536" s="3">
+        <v>1</v>
+      </c>
+      <c r="D536" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E536" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F536" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G536" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H536" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I536" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J536" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K536" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L536" s="27">
+        <v>1</v>
+      </c>
+      <c r="M536" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N536" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O536" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L536=0,VLOOKUP(C536,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C536,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P536" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q536" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="537" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A537" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B537" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C537" s="3">
+        <v>2</v>
+      </c>
+      <c r="D537" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E537" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F537" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G537" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H537" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I537" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J537" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K537" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L537" s="27">
+        <v>1</v>
+      </c>
+      <c r="M537" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N537" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O537" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L537=0,VLOOKUP(C537,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C537,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P537" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q537" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="538" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A538" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B538" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C538" s="3">
+        <v>3</v>
+      </c>
+      <c r="D538" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E538" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F538" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G538" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H538" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I538" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J538" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K538" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L538" s="27">
+        <v>1</v>
+      </c>
+      <c r="M538" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N538" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O538" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L538=0,VLOOKUP(C538,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C538,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P538" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q538" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="539" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A539" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B539" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C539" s="3">
+        <v>3</v>
+      </c>
+      <c r="D539" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E539" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F539" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G539" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H539" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I539" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J539" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K539" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L539" s="27">
+        <v>1</v>
+      </c>
+      <c r="M539" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N539" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O539" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L539=0,VLOOKUP(C539,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C539,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P539" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q539" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="540" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A540" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B540" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C540" s="3">
+        <v>5</v>
+      </c>
+      <c r="D540" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E540" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F540" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G540" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H540" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I540" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J540" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K540" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L540" s="29">
+        <v>1</v>
+      </c>
+      <c r="M540" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N540" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O540" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L540=0,VLOOKUP(C540,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C540,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P540" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q540" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="541" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A541" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C541" s="3">
+        <v>6</v>
+      </c>
+      <c r="D541" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E541" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F541" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G541" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H541" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I541" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J541" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K541" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L541" s="29">
+        <v>1</v>
+      </c>
+      <c r="M541" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N541" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O541" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L541=0,VLOOKUP(C541,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C541,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P541" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q541" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A542" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B542" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C542" s="3">
+        <v>7</v>
+      </c>
+      <c r="D542" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E542" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F542" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G542" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H542" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I542" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J542" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K542" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L542" s="29">
+        <v>1</v>
+      </c>
+      <c r="M542" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N542" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O542" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L542=0,VLOOKUP(C542,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C542,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P542" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q542" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A543" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B543" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C543" s="3">
+        <v>8</v>
+      </c>
+      <c r="D543" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E543" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F543" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G543" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H543" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I543" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J543" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K543" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L543" s="29">
+        <v>1</v>
+      </c>
+      <c r="M543" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N543" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O543" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L543=0,VLOOKUP(C543,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C543,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P543" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q543" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="544" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A544" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B544" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C544" s="3">
+        <v>9</v>
+      </c>
+      <c r="D544" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E544" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F544" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G544" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H544" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I544" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J544" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K544" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L544" s="29">
+        <v>1</v>
+      </c>
+      <c r="M544" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N544" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O544" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L544=0,VLOOKUP(C544,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C544,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P544" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q544" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A545" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B545" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C545" s="3">
+        <v>10</v>
+      </c>
+      <c r="D545" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E545" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F545" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G545" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H545" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I545" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J545" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K545" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L545" s="27">
+        <v>1</v>
+      </c>
+      <c r="M545" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N545" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O545" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P545" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q545" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A546" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B546" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C546" s="3">
+        <v>11</v>
+      </c>
+      <c r="D546" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E546" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F546" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G546" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H546" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I546" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J546" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K546" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L546" s="27">
+        <v>1</v>
+      </c>
+      <c r="M546" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N546" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O546" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P546" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q546" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A547" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B547" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C547" s="3">
+        <v>12</v>
+      </c>
+      <c r="D547" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>12</v>
+      </c>
+      <c r="E547" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F547" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G547" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H547" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I547" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J547" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K547" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L547" s="27">
+        <v>1</v>
+      </c>
+      <c r="M547" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N547" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O547" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P547" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q547" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A548" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B548" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C548" s="3">
+        <v>1</v>
+      </c>
+      <c r="D548" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E548" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F548" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G548" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H548" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I548" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J548" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K548" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L548" s="27">
+        <v>1</v>
+      </c>
+      <c r="M548" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N548" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O548" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P548" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q548" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A549" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B549" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C549" s="3">
+        <v>2</v>
+      </c>
+      <c r="D549" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E549" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F549" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G549" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H549" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I549" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J549" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K549" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L549" s="27">
+        <v>1</v>
+      </c>
+      <c r="M549" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N549" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O549" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P549" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q549" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A550" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B550" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C550" s="3">
+        <v>3</v>
+      </c>
+      <c r="D550" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E550" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F550" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G550" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H550" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I550" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J550" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K550" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L550" s="27">
+        <v>1</v>
+      </c>
+      <c r="M550" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N550" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O550" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P550" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q550" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A551" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C551" s="3">
+        <v>1</v>
+      </c>
+      <c r="D551" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E551" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F551" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G551" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H551" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I551" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J551" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K551" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L551" s="27">
+        <v>1</v>
+      </c>
+      <c r="M551" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N551" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O551" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P551" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q551" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A552" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B552" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C552" s="3">
+        <v>2</v>
+      </c>
+      <c r="D552" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E552" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F552" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G552" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H552" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I552" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J552" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K552" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L552" s="27">
+        <v>1</v>
+      </c>
+      <c r="M552" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N552" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O552" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L552=0,VLOOKUP(C552,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C552,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P552" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q552" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A553" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B553" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C553" s="3">
+        <v>1</v>
+      </c>
+      <c r="D553" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E553" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F553" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G553" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H553" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I553" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J553" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K553" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L553" s="27">
+        <v>1</v>
+      </c>
+      <c r="M553" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N553" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O553" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L553=0,VLOOKUP(C553,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C553,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P553" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q553" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A554" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B554" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C554" s="3">
+        <v>2</v>
+      </c>
+      <c r="D554" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E554" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F554" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G554" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H554" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I554" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J554" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K554" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L554" s="27">
+        <v>1</v>
+      </c>
+      <c r="M554" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N554" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O554" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L554=0,VLOOKUP(C554,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C554,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P554" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q554" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A555" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B555" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C555" s="3">
+        <v>3</v>
+      </c>
+      <c r="D555" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E555" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F555" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G555" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H555" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I555" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J555" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K555" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L555" s="27">
+        <v>1</v>
+      </c>
+      <c r="M555" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N555" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O555" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L555=0,VLOOKUP(C555,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C555,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P555" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q555" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A556" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B556" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C556" s="3">
+        <v>1</v>
+      </c>
+      <c r="D556" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E556" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F556" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G556" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H556" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I556" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J556" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K556" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L556" s="27">
+        <v>1</v>
+      </c>
+      <c r="M556" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N556" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O556" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L556=0,VLOOKUP(C556,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C556,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P556" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q556" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A557" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B557" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C557" s="3">
+        <v>2</v>
+      </c>
+      <c r="D557" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E557" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F557" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G557" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H557" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I557" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J557" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K557" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L557" s="27">
+        <v>1</v>
+      </c>
+      <c r="M557" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N557" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O557" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L557=0,VLOOKUP(C557,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C557,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P557" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q557" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A558" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B558" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C558" s="3">
+        <v>3</v>
+      </c>
+      <c r="D558" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E558" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F558" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G558" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H558" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I558" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J558" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K558" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L558" s="27">
+        <v>1</v>
+      </c>
+      <c r="M558" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N558" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O558" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L558=0,VLOOKUP(C558,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C558,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P558" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q558" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A559" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B559" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C559" s="3">
+        <v>3</v>
+      </c>
+      <c r="D559" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E559" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F559" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G559" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H559" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I559" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J559" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K559" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L559" s="27">
+        <v>1</v>
+      </c>
+      <c r="M559" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N559" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O559" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L559=0,VLOOKUP(C559,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C559,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P559" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q559" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A560" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B560" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C560" s="3">
+        <v>5</v>
+      </c>
+      <c r="D560" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E560" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F560" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G560" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H560" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I560" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J560" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K560" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L560" s="27">
+        <v>1</v>
+      </c>
+      <c r="M560" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N560" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O560" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L560=0,VLOOKUP(C560,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C560,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P560" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q560" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A561" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B561" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C561" s="3">
+        <v>1</v>
+      </c>
+      <c r="D561" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E561" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F561" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G561" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H561" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I561" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J561" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K561" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L561" s="27">
+        <v>1</v>
+      </c>
+      <c r="M561" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N561" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O561" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L561=0,VLOOKUP(C561,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C561,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P561" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q561" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A562" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B562" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C562" s="3">
+        <v>2</v>
+      </c>
+      <c r="D562" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E562" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F562" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G562" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H562" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I562" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J562" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K562" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L562" s="27">
+        <v>1</v>
+      </c>
+      <c r="M562" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N562" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O562" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L562=0,VLOOKUP(C562,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C562,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P562" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q562" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A563" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B563" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C563" s="3">
+        <v>3</v>
+      </c>
+      <c r="D563" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E563" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F563" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G563" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H563" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I563" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J563" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K563" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L563" s="27">
+        <v>1</v>
+      </c>
+      <c r="M563" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N563" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O563" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L563=0,VLOOKUP(C563,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C563,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P563" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q563" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A564" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B564" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C564" s="3">
+        <v>3</v>
+      </c>
+      <c r="D564" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E564" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F564" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G564" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H564" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I564" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J564" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K564" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L564" s="27">
+        <v>1</v>
+      </c>
+      <c r="M564" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N564" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O564" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L564=0,VLOOKUP(C564,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C564,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P564" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q564" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A565" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B565" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C565" s="3">
+        <v>5</v>
+      </c>
+      <c r="D565" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E565" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F565" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G565" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H565" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I565" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J565" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K565" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L565" s="27">
+        <v>1</v>
+      </c>
+      <c r="M565" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N565" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O565" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L565=0,VLOOKUP(C565,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C565,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P565" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q565" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A566" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B566" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C566" s="3">
+        <v>6</v>
+      </c>
+      <c r="D566" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E566" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F566" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G566" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H566" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I566" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J566" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K566" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L566" s="27">
+        <v>1</v>
+      </c>
+      <c r="M566" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N566" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O566" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L566=0,VLOOKUP(C566,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C566,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P566" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q566" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A567" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C567" s="3">
+        <v>7</v>
+      </c>
+      <c r="D567" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E567" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F567" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G567" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H567" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I567" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J567" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K567" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L567" s="27">
+        <v>1</v>
+      </c>
+      <c r="M567" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N567" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O567" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L567=0,VLOOKUP(C567,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C567,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P567" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q567" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A568" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B568" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C568" s="3">
+        <v>8</v>
+      </c>
+      <c r="D568" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E568" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F568" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G568" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H568" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I568" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J568" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K568" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L568" s="27">
+        <v>1</v>
+      </c>
+      <c r="M568" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N568" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O568" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L568=0,VLOOKUP(C568,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C568,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P568" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q568" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A569" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B569" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C569" s="3">
+        <v>1</v>
+      </c>
+      <c r="D569" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E569" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F569" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G569" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H569" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I569" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J569" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K569" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L569" s="27">
+        <v>1</v>
+      </c>
+      <c r="M569" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N569" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O569" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L569=0,VLOOKUP(C569,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C569,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P569" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q569" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A570" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B570" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C570" s="3">
+        <v>2</v>
+      </c>
+      <c r="D570" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E570" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F570" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G570" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H570" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I570" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J570" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K570" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L570" s="27">
+        <v>1</v>
+      </c>
+      <c r="M570" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N570" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O570" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L570=0,VLOOKUP(C570,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C570,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P570" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q570" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A571" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B571" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C571" s="3">
+        <v>3</v>
+      </c>
+      <c r="D571" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E571" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F571" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G571" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H571" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I571" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J571" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K571" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L571" s="27">
+        <v>1</v>
+      </c>
+      <c r="M571" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N571" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O571" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L571=0,VLOOKUP(C571,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C571,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P571" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q571" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A572" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B572" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C572" s="3">
+        <v>3</v>
+      </c>
+      <c r="D572" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E572" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F572" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G572" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H572" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I572" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J572" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K572" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L572" s="27">
+        <v>1</v>
+      </c>
+      <c r="M572" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N572" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O572" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L572=0,VLOOKUP(C572,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C572,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P572" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q572" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A573" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B573" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C573" s="3">
+        <v>1</v>
+      </c>
+      <c r="D573" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E573" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F573" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G573" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H573" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I573" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J573" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K573" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L573" s="27">
+        <v>1</v>
+      </c>
+      <c r="M573" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N573" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O573" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L573=0,VLOOKUP(C573,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C573,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P573" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q573" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A574" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B574" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C574" s="3">
+        <v>2</v>
+      </c>
+      <c r="D574" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E574" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F574" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G574" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H574" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I574" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J574" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K574" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L574" s="27">
+        <v>1</v>
+      </c>
+      <c r="M574" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N574" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O574" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L574=0,VLOOKUP(C574,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C574,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P574" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q574" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A575" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B575" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C575" s="3">
+        <v>3</v>
+      </c>
+      <c r="D575" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E575" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F575" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G575" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H575" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I575" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J575" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K575" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L575" s="27">
+        <v>1</v>
+      </c>
+      <c r="M575" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N575" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O575" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L575=0,VLOOKUP(C575,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C575,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P575" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q575" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="576" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A576" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B576" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C576" s="3">
+        <v>3</v>
+      </c>
+      <c r="D576" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E576" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F576" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G576" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H576" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I576" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J576" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K576" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L576" s="27">
+        <v>1</v>
+      </c>
+      <c r="M576" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N576" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O576" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L576=0,VLOOKUP(C576,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C576,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P576" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q576" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="577" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D577" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E520" s="24"/>
-      <c r="F520" s="25"/>
-      <c r="G520" s="11"/>
-      <c r="J520" s="14"/>
-      <c r="K520" s="26">
+      <c r="E577" s="24"/>
+      <c r="F577" s="25"/>
+      <c r="G577" s="11"/>
+      <c r="J577" s="14"/>
+      <c r="K577" s="26">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L520" s="29"/>
-      <c r="M520" s="22">
+      <c r="L577" s="27"/>
+      <c r="M577" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="N520" s="22">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O520" s="18" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L520=0,VLOOKUP(C520,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C520,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N577" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O577" s="18" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L577=0,VLOOKUP(C577,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C577,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P520" s="18" t="e">
+      <c r="P577" s="18" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q520" s="19" t="e">
+      <c r="Q577" s="19" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E521" s="3"/>
-      <c r="F521" s="3"/>
-      <c r="L521" s="3"/>
-      <c r="M521" s="3"/>
-      <c r="N521" s="3"/>
-    </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E522" s="3"/>
-      <c r="F522" s="3"/>
-      <c r="L522" s="3"/>
-      <c r="M522" s="3"/>
-      <c r="N522" s="3"/>
-    </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E523" s="3"/>
-      <c r="F523" s="3"/>
-      <c r="L523" s="3"/>
-      <c r="M523" s="3"/>
-      <c r="N523" s="3"/>
-    </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E524" s="3"/>
-      <c r="F524" s="3"/>
-      <c r="L524" s="3"/>
-      <c r="M524" s="3"/>
-      <c r="N524" s="3"/>
-    </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E525" s="3"/>
-      <c r="F525" s="3"/>
-      <c r="L525" s="3"/>
-      <c r="M525" s="3"/>
-      <c r="N525" s="3"/>
+    <row r="578" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D578" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E578" s="24"/>
+      <c r="F578" s="25"/>
+      <c r="G578" s="11"/>
+      <c r="J578" s="14"/>
+      <c r="K578" s="26">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L578" s="27"/>
+      <c r="M578" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N578" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O578" s="18" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L578=0,VLOOKUP(C578,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C578,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P578" s="18" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q578" s="19" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="579" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D579" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E579" s="24"/>
+      <c r="F579" s="25"/>
+      <c r="G579" s="11"/>
+      <c r="J579" s="14"/>
+      <c r="K579" s="26">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L579" s="27"/>
+      <c r="M579" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N579" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O579" s="18" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L579=0,VLOOKUP(C579,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C579,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P579" s="18" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q579" s="19" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="580" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D580" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E580" s="24"/>
+      <c r="F580" s="25"/>
+      <c r="G580" s="11"/>
+      <c r="J580" s="14"/>
+      <c r="K580" s="26">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L580" s="27"/>
+      <c r="M580" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N580" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O580" s="18" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L580=0,VLOOKUP(C580,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C580,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P580" s="18" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q580" s="19" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="581" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D581" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E581" s="24"/>
+      <c r="F581" s="25"/>
+      <c r="G581" s="11"/>
+      <c r="J581" s="14"/>
+      <c r="K581" s="26">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L581" s="27"/>
+      <c r="M581" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N581" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O581" s="18" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L581=0,VLOOKUP(C581,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C581,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P581" s="18" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q581" s="19" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="582" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D582" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E582" s="24"/>
+      <c r="F582" s="25"/>
+      <c r="G582" s="11"/>
+      <c r="J582" s="14"/>
+      <c r="K582" s="26">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L582" s="27"/>
+      <c r="M582" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N582" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O582" s="18" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L582=0,VLOOKUP(C582,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C582,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P582" s="18" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q582" s="19" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="583" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D583" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E583" s="24"/>
+      <c r="F583" s="25"/>
+      <c r="G583" s="11"/>
+      <c r="J583" s="14"/>
+      <c r="K583" s="26">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L583" s="27"/>
+      <c r="M583" s="22">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N583" s="22">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O583" s="18" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L583=0,VLOOKUP(C583,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C583,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P583" s="18" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q583" s="19" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -33657,10 +37332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
-  <dimension ref="A1:L213"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39313,7 +42988,7 @@
         <v>316</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" ref="K157:K211" si="3">$K$1</f>
+        <f t="shared" ref="K157:K220" si="3">$K$1</f>
         <v>44197</v>
       </c>
       <c r="L157" s="2">
@@ -41292,16 +44967,742 @@
       <c r="H212" t="s">
         <v>317</v>
       </c>
+      <c r="K212" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L212" s="2">
+        <f>ROUNDDOWN((K212-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>417</v>
+      </c>
+      <c r="B213" t="s">
+        <v>112</v>
+      </c>
       <c r="C213" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D213" s="1"/>
+        <v>Doolan.Patrick</v>
+      </c>
+      <c r="D213" s="1">
+        <v>39860</v>
+      </c>
       <c r="E213" s="2">
         <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+      <c r="F213" t="s">
+        <v>50</v>
+      </c>
+      <c r="G213" t="s">
+        <v>198</v>
+      </c>
+      <c r="H213" t="s">
+        <v>316</v>
+      </c>
+      <c r="K213" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L213" s="2">
+        <f>ROUNDDOWN((K213-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>419</v>
+      </c>
+      <c r="B214" t="s">
+        <v>418</v>
+      </c>
+      <c r="C214" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Sage-Hoff.Quinn</v>
+      </c>
+      <c r="D214" s="31">
+        <v>39580</v>
+      </c>
+      <c r="E214" s="2">
+        <f>ROUNDDOWN((K214-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F214" t="s">
+        <v>420</v>
+      </c>
+      <c r="G214" t="s">
+        <v>198</v>
+      </c>
+      <c r="H214" t="s">
+        <v>316</v>
+      </c>
+      <c r="K214" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L214" s="2">
+        <f>ROUNDDOWN((K214-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>421</v>
+      </c>
+      <c r="B215" t="s">
+        <v>422</v>
+      </c>
+      <c r="C215" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Guan.Nicole</v>
+      </c>
+      <c r="D215" s="31">
+        <v>40944</v>
+      </c>
+      <c r="E215" s="2">
+        <f>ROUNDDOWN((K215-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
+      </c>
+      <c r="F215" t="s">
+        <v>11</v>
+      </c>
+      <c r="G215" t="s">
+        <v>198</v>
+      </c>
+      <c r="H215" t="s">
+        <v>316</v>
+      </c>
+      <c r="K215" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L215" s="2">
+        <f>ROUNDDOWN((K215-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>423</v>
+      </c>
+      <c r="B216" t="s">
+        <v>424</v>
+      </c>
+      <c r="C216" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Adams.Keira</v>
+      </c>
+      <c r="D216" s="31">
+        <v>39275</v>
+      </c>
+      <c r="E216" s="2">
+        <f>ROUNDDOWN((K216-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
+        <v>50</v>
+      </c>
+      <c r="G216" t="s">
+        <v>198</v>
+      </c>
+      <c r="H216" t="s">
+        <v>316</v>
+      </c>
+      <c r="K216" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L216" s="2">
+        <f>ROUNDDOWN((K216-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" t="s">
+        <v>325</v>
+      </c>
+      <c r="C217" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Kasperski.Sebastian</v>
+      </c>
+      <c r="D217" s="31">
+        <v>40730</v>
+      </c>
+      <c r="E217" s="2">
+        <f>ROUNDDOWN((K217-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F217" t="s">
+        <v>49</v>
+      </c>
+      <c r="G217" t="s">
+        <v>198</v>
+      </c>
+      <c r="H217" t="s">
+        <v>317</v>
+      </c>
+      <c r="K217" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L217" s="2">
+        <f>ROUNDDOWN((K217-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>425</v>
+      </c>
+      <c r="B218" t="s">
+        <v>426</v>
+      </c>
+      <c r="C218" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Cooper.Lachlan</v>
+      </c>
+      <c r="D218" s="31">
+        <v>40280</v>
+      </c>
+      <c r="E218" s="2">
+        <f>ROUNDDOWN((K218-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218" t="s">
+        <v>198</v>
+      </c>
+      <c r="H218" t="s">
+        <v>317</v>
+      </c>
+      <c r="K218" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L218" s="2">
+        <f>ROUNDDOWN((K218-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>427</v>
+      </c>
+      <c r="B219" t="s">
+        <v>428</v>
+      </c>
+      <c r="C219" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Minyaev.Plato</v>
+      </c>
+      <c r="D219" s="31">
+        <v>40814</v>
+      </c>
+      <c r="E219" s="2">
+        <f>ROUNDDOWN((K219-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F219" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219" t="s">
+        <v>198</v>
+      </c>
+      <c r="H219" t="s">
+        <v>317</v>
+      </c>
+      <c r="K219" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L219" s="2">
+        <f>ROUNDDOWN((K219-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" t="s">
+        <v>430</v>
+      </c>
+      <c r="C220" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Lucas-Elliott.Indy</v>
+      </c>
+      <c r="D220" s="31">
+        <v>40970</v>
+      </c>
+      <c r="E220" s="2">
+        <f>ROUNDDOWN((K220-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
+      </c>
+      <c r="F220" t="s">
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
+        <v>198</v>
+      </c>
+      <c r="H220" t="s">
+        <v>317</v>
+      </c>
+      <c r="K220" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L220" s="2">
+        <f>ROUNDDOWN((K220-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>295</v>
+      </c>
+      <c r="B221" t="s">
+        <v>431</v>
+      </c>
+      <c r="C221" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Brammer.Reuben</v>
+      </c>
+      <c r="D221" s="31">
+        <v>41698</v>
+      </c>
+      <c r="E221" s="2">
+        <f>ROUNDDOWN((K221-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>11</v>
+      </c>
+      <c r="G221" t="s">
+        <v>198</v>
+      </c>
+      <c r="H221" t="s">
+        <v>317</v>
+      </c>
+      <c r="K221" s="1">
+        <f t="shared" ref="K221:K234" si="4">$K$1</f>
+        <v>44197</v>
+      </c>
+      <c r="L221" s="2">
+        <f>ROUNDDOWN((K221-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>295</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C222" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Brammer.Amelie</v>
+      </c>
+      <c r="D222" s="31">
+        <v>41078</v>
+      </c>
+      <c r="E222" s="2">
+        <f>ROUNDDOWN((K222-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
+      </c>
+      <c r="F222" t="s">
+        <v>11</v>
+      </c>
+      <c r="G222" t="s">
+        <v>198</v>
+      </c>
+      <c r="H222" t="s">
+        <v>316</v>
+      </c>
+      <c r="K222" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L222" s="2">
+        <f>ROUNDDOWN((K222-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>433</v>
+      </c>
+      <c r="B223" t="s">
+        <v>434</v>
+      </c>
+      <c r="C223" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Ryntjes.Amon</v>
+      </c>
+      <c r="D223" s="31">
+        <v>40136</v>
+      </c>
+      <c r="E223" s="2">
+        <f>ROUNDDOWN((K223-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+      <c r="F223" t="s">
+        <v>49</v>
+      </c>
+      <c r="G223" t="s">
+        <v>198</v>
+      </c>
+      <c r="H223" t="s">
+        <v>317</v>
+      </c>
+      <c r="K223" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L223" s="2">
+        <f>ROUNDDOWN((K223-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>436</v>
+      </c>
+      <c r="B224" t="s">
+        <v>435</v>
+      </c>
+      <c r="C224" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Eckermann.Edmund</v>
+      </c>
+      <c r="D224" s="31">
+        <v>41166</v>
+      </c>
+      <c r="E224" s="2">
+        <f>ROUNDDOWN((K224-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
+      </c>
+      <c r="F224" t="s">
+        <v>49</v>
+      </c>
+      <c r="G224" t="s">
+        <v>198</v>
+      </c>
+      <c r="H224" t="s">
+        <v>317</v>
+      </c>
+      <c r="K224" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L224" s="2">
+        <f>ROUNDDOWN((K224-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>437</v>
+      </c>
+      <c r="B225" t="s">
+        <v>438</v>
+      </c>
+      <c r="C225" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Hampton.Marley</v>
+      </c>
+      <c r="D225" s="31">
+        <v>40207</v>
+      </c>
+      <c r="E225" s="2">
+        <f>ROUNDDOWN((K225-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F225" t="s">
+        <v>50</v>
+      </c>
+      <c r="G225" t="s">
+        <v>198</v>
+      </c>
+      <c r="H225" t="s">
+        <v>317</v>
+      </c>
+      <c r="K225" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L225" s="2">
+        <f>ROUNDDOWN((K225-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>440</v>
+      </c>
+      <c r="B226" t="s">
+        <v>439</v>
+      </c>
+      <c r="C226" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Bruer.Juliet</v>
+      </c>
+      <c r="D226" s="31">
+        <v>40651</v>
+      </c>
+      <c r="E226" s="2">
+        <f>ROUNDDOWN((K226-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F226" t="s">
+        <v>50</v>
+      </c>
+      <c r="G226" t="s">
+        <v>198</v>
+      </c>
+      <c r="H226" t="s">
+        <v>316</v>
+      </c>
+      <c r="K226" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L226" s="2">
+        <f>ROUNDDOWN((K226-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>442</v>
+      </c>
+      <c r="B227" t="s">
+        <v>441</v>
+      </c>
+      <c r="C227" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Sinclair.Edison</v>
+      </c>
+      <c r="D227" s="31">
+        <v>40871</v>
+      </c>
+      <c r="E227" s="2">
+        <f>ROUNDDOWN((K227-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F227" t="s">
+        <v>50</v>
+      </c>
+      <c r="G227" t="s">
+        <v>198</v>
+      </c>
+      <c r="H227" t="s">
+        <v>317</v>
+      </c>
+      <c r="K227" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L227" s="2">
+        <f>ROUNDDOWN((K227-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>443</v>
+      </c>
+      <c r="B228" t="s">
+        <v>80</v>
+      </c>
+      <c r="C228" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Dennis.Oliver</v>
+      </c>
+      <c r="D228" s="31">
+        <v>40664</v>
+      </c>
+      <c r="E228" s="2">
+        <f>ROUNDDOWN((K228-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F228" t="s">
+        <v>50</v>
+      </c>
+      <c r="G228" t="s">
+        <v>198</v>
+      </c>
+      <c r="H228" t="s">
+        <v>317</v>
+      </c>
+      <c r="K228" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L228" s="2">
+        <f>ROUNDDOWN((K228-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>444</v>
+      </c>
+      <c r="B229" t="s">
+        <v>269</v>
+      </c>
+      <c r="C229" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Northey.Matilda</v>
+      </c>
+      <c r="D229" s="31">
+        <v>40071</v>
+      </c>
+      <c r="E229" s="2">
+        <f>ROUNDDOWN((K229-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+      <c r="F229" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229" t="s">
+        <v>198</v>
+      </c>
+      <c r="H229" t="s">
+        <v>316</v>
+      </c>
+      <c r="K229" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L229" s="2">
+        <f>ROUNDDOWN((K229-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C230" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D230" s="31"/>
+      <c r="E230" s="2">
+        <f>ROUNDDOWN((K230-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>121</v>
+      </c>
+      <c r="K230" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L230" s="2">
+        <f>ROUNDDOWN((K230-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C231" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D231" s="31"/>
+      <c r="E231" s="2">
+        <f>ROUNDDOWN((K231-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="K231" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L231" s="2">
+        <f>ROUNDDOWN((K231-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C232" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D232" s="31"/>
+      <c r="E232" s="2">
+        <f>ROUNDDOWN((K232-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="K232" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L232" s="2">
+        <f>ROUNDDOWN((K232-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C233" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D233" s="31"/>
+      <c r="E233" s="2">
+        <f>ROUNDDOWN((K233-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="K233" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L233" s="2">
+        <f>ROUNDDOWN((K233-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C234" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D234" s="31"/>
+      <c r="E234" s="2">
+        <f>ROUNDDOWN((K234-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="K234" s="1">
+        <f t="shared" si="4"/>
+        <v>44197</v>
+      </c>
+      <c r="L234" s="2">
+        <f>ROUNDDOWN((K234-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C235" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D235" s="31"/>
+      <c r="E235" s="2">
+        <f>ROUNDDOWN((K235-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C236" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D236" s="31"/>
+      <c r="E236" s="2">
+        <f>ROUNDDOWN((K236-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/2021/FSARanking2021.xlsx
+++ b/2021/FSARanking2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC16DD-8FE8-4DC2-BF9B-8767E0B5B884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190C2DC-085B-4F6A-B07D-5F9736F111AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="445">
   <si>
     <t>Ranking</t>
   </si>
@@ -1727,8 +1727,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q551" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q551" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q573" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:Q573" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q415">
     <sortCondition ref="E2:E415"/>
     <sortCondition ref="H2:H415"/>
@@ -2157,11 +2157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q551"/>
+  <dimension ref="A1:Q573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N539" sqref="N539"/>
+      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E566" sqref="E566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="M5" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="M6" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="M11" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="M13" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="M14" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="M23" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="M33" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="M35" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N35" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="M36" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="M38" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="M39" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="M82" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N82" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="M84" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N84" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="M89" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N89" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="M90" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N90" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="M91" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N91" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="M96" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N96" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="M110" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N110" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="M113" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N113" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="M118" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="M121" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N121" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="M125" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="M126" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N126" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="M196" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N196" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="M200" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N200" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="M202" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N202" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="M203" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N203" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="M205" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N205" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14776,7 +14776,7 @@
       </c>
       <c r="M207" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N207" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="M210" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N210" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="M214" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N214" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="M225" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N225" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="M228" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N228" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="M229" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N229" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16238,7 +16238,7 @@
       </c>
       <c r="M231" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N231" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16358,7 +16358,7 @@
       </c>
       <c r="M233" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N233" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16658,7 +16658,7 @@
       </c>
       <c r="M238" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N238" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16718,7 +16718,7 @@
       </c>
       <c r="M239" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N239" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="M240" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N240" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="M242" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N242" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17018,7 +17018,7 @@
       </c>
       <c r="M244" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N244" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17138,7 +17138,7 @@
       </c>
       <c r="M246" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N246" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="M247" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N247" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17258,7 +17258,7 @@
       </c>
       <c r="M248" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N248" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="M250" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N250" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17498,7 +17498,7 @@
       </c>
       <c r="M252" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N252" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -18218,11 +18218,11 @@
       </c>
       <c r="M264" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N264" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O264" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L264=0,VLOOKUP(C264,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C264,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="Q264" s="18">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.25">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="M313" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N313" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21264,7 +21264,7 @@
       </c>
       <c r="M314" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N314" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="M316" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N316" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21508,7 +21508,7 @@
       </c>
       <c r="M318" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N318" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="M319" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N319" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21630,7 +21630,7 @@
       </c>
       <c r="M320" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N320" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="M321" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N321" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22423,7 +22423,7 @@
       </c>
       <c r="M333" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N333" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22545,7 +22545,7 @@
       </c>
       <c r="M335" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N335" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22606,7 +22606,7 @@
       </c>
       <c r="M336" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N336" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="M338" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N338" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22789,7 +22789,7 @@
       </c>
       <c r="M339" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N339" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="M340" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N340" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="M405" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N405" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -26929,7 +26929,7 @@
       </c>
       <c r="M407" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N407" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27046,7 +27046,7 @@
       </c>
       <c r="M409" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N409" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27105,7 +27105,7 @@
       </c>
       <c r="M410" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N410" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27224,7 +27224,7 @@
       </c>
       <c r="M412" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N412" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27284,7 +27284,7 @@
       </c>
       <c r="M413" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N413" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27344,7 +27344,7 @@
       </c>
       <c r="M414" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N414" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27464,7 +27464,7 @@
       </c>
       <c r="M416" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N416" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="M418" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N418" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27644,7 +27644,7 @@
       </c>
       <c r="M419" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N419" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28410,7 +28410,7 @@
       </c>
       <c r="M432" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N432" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28821,7 +28821,7 @@
       </c>
       <c r="M439" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N439" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28880,7 +28880,7 @@
       </c>
       <c r="M440" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N440" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28939,7 +28939,7 @@
       </c>
       <c r="M441" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N441" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28998,7 +28998,7 @@
       </c>
       <c r="M442" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N442" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29115,7 +29115,7 @@
       </c>
       <c r="M444" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N444" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29175,7 +29175,7 @@
       </c>
       <c r="M445" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N445" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29295,7 +29295,7 @@
       </c>
       <c r="M447" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N447" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29355,7 +29355,7 @@
       </c>
       <c r="M448" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N448" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29415,7 +29415,7 @@
       </c>
       <c r="M449" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N449" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -35121,249 +35121,1616 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A545" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B545" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C545" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D545" s="12">
+        <v>2</v>
+      </c>
+      <c r="E545" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F545" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G545" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H545" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I545" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J545" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K545" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L545" s="25">
+        <v>0</v>
+      </c>
+      <c r="M545" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N545" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O545" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P545" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q545" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A546" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B546" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C546" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D546" s="12">
+        <v>2</v>
+      </c>
+      <c r="E546" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F546" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G546" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H546" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I546" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J546" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K546" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L546" s="25">
+        <v>0</v>
+      </c>
+      <c r="M546" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N546" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O546" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P546" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q546" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A547" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B547" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C547" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D547" s="12">
+        <v>1</v>
+      </c>
+      <c r="E547" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F547" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G547" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H547" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I547" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J547" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K547" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L547" s="25">
+        <v>0</v>
+      </c>
+      <c r="M547" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N547" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O547" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P547" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q547" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A548" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B548" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C548" s="3">
+        <v>1</v>
+      </c>
+      <c r="D548" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E548" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F548" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G548" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H548" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I548" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J548" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K548" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L548" s="25">
+        <v>0</v>
+      </c>
+      <c r="M548" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N548" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O548" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P548" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q548" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A549" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B549" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C549" s="3">
+        <v>2</v>
+      </c>
+      <c r="D549" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E549" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F549" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G549" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H549" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I549" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J549" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K549" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L549" s="25">
+        <v>0</v>
+      </c>
+      <c r="M549" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N549" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O549" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P549" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q549" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A550" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B550" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C550" s="3">
+        <v>3</v>
+      </c>
+      <c r="D550" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E550" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F550" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G550" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H550" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I550" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J550" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K550" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L550" s="25">
+        <v>0</v>
+      </c>
+      <c r="M550" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N550" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O550" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P550" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q550" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A551" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C551" s="3">
+        <v>3</v>
+      </c>
+      <c r="D551" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E551" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F551" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G551" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H551" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I551" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J551" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K551" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L551" s="25">
+        <v>0</v>
+      </c>
+      <c r="M551" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N551" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O551" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P551" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q551" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A552" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B552" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C552" s="3">
+        <v>5</v>
+      </c>
+      <c r="D552" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E552" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F552" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G552" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H552" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I552" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J552" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K552" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L552" s="25">
+        <v>0</v>
+      </c>
+      <c r="M552" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N552" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O552" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L552=0,VLOOKUP(C552,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C552,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P552" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q552" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A553" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B553" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C553" s="3">
+        <v>6</v>
+      </c>
+      <c r="D553" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E553" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F553" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G553" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H553" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I553" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J553" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K553" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L553" s="25">
+        <v>0</v>
+      </c>
+      <c r="M553" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N553" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O553" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L553=0,VLOOKUP(C553,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C553,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P553" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q553" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A554" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B554" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C554" s="3">
+        <v>7</v>
+      </c>
+      <c r="D554" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E554" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F554" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G554" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H554" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I554" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J554" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K554" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L554" s="25">
+        <v>0</v>
+      </c>
+      <c r="M554" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N554" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O554" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L554=0,VLOOKUP(C554,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C554,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P554" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q554" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A555" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B555" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C555" s="3">
+        <v>8</v>
+      </c>
+      <c r="D555" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E555" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F555" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G555" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H555" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I555" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J555" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K555" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L555" s="25">
+        <v>0</v>
+      </c>
+      <c r="M555" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N555" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O555" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L555=0,VLOOKUP(C555,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C555,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P555" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q555" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A556" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B556" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C556" s="3">
+        <v>1</v>
+      </c>
+      <c r="D556" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E556" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F556" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G556" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H556" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I556" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J556" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K556" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L556" s="25">
+        <v>0</v>
+      </c>
+      <c r="M556" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N556" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O556" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L556=0,VLOOKUP(C556,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C556,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P556" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q556" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A557" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B557" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C557" s="3">
+        <v>2</v>
+      </c>
+      <c r="D557" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E557" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F557" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G557" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H557" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I557" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J557" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K557" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L557" s="25">
+        <v>0</v>
+      </c>
+      <c r="M557" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N557" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O557" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L557=0,VLOOKUP(C557,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C557,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P557" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q557" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A558" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B558" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C558" s="3">
+        <v>3</v>
+      </c>
+      <c r="D558" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E558" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F558" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G558" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H558" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I558" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J558" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K558" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L558" s="25">
+        <v>0</v>
+      </c>
+      <c r="M558" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N558" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O558" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L558=0,VLOOKUP(C558,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C558,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P558" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q558" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A559" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B559" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C559" s="3">
+        <v>3</v>
+      </c>
+      <c r="D559" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E559" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F559" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G559" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H559" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I559" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J559" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K559" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L559" s="25">
+        <v>0</v>
+      </c>
+      <c r="M559" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N559" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O559" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L559=0,VLOOKUP(C559,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C559,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P559" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q559" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A560" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B560" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C560" s="3">
+        <v>5</v>
+      </c>
+      <c r="D560" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E560" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F560" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G560" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H560" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I560" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J560" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K560" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L560" s="25">
+        <v>0</v>
+      </c>
+      <c r="M560" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N560" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O560" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L560=0,VLOOKUP(C560,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C560,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P560" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q560" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A561" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B561" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C561" s="3">
+        <v>1</v>
+      </c>
+      <c r="D561" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E561" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F561" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G561" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H561" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I561" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J561" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K561" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L561" s="25">
+        <v>0</v>
+      </c>
+      <c r="M561" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N561" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O561" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L561=0,VLOOKUP(C561,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C561,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P561" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q561" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A562" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C562" s="3">
+        <v>2</v>
+      </c>
+      <c r="D562" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E562" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F562" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G562" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H562" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I562" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J562" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K562" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L562" s="25">
+        <v>0</v>
+      </c>
+      <c r="M562" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N562" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O562" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L562=0,VLOOKUP(C562,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C562,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P562" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q562" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A563" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B563" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C563" s="3">
+        <v>3</v>
+      </c>
+      <c r="D563" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E563" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F563" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G563" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H563" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I563" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J563" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K563" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L563" s="25">
+        <v>0</v>
+      </c>
+      <c r="M563" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N563" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O563" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L563=0,VLOOKUP(C563,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C563,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P563" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q563" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A564" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B564" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C564" s="3">
+        <v>3</v>
+      </c>
+      <c r="D564" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E564" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F564" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G564" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H564" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I564" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J564" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K564" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L564" s="25">
+        <v>0</v>
+      </c>
+      <c r="M564" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N564" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O564" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L564=0,VLOOKUP(C564,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C564,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P564" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q564" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A565" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B565" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C565" s="3">
+        <v>1</v>
+      </c>
+      <c r="D565" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E565" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F565" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G565" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H565" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I565" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J565" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K565" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L565" s="25">
+        <v>0</v>
+      </c>
+      <c r="M565" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N565" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O565" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L565=0,VLOOKUP(C565,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C565,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P565" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q565" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A566" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B566" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C566" s="3">
+        <v>2</v>
+      </c>
+      <c r="D566" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E566" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F566" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G566" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H566" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I566" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J566" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K566" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L566" s="25">
+        <v>0</v>
+      </c>
+      <c r="M566" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N566" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O566" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L566=0,VLOOKUP(C566,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C566,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P566" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q566" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A567" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B567" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C567" s="3">
+        <v>3</v>
+      </c>
+      <c r="D567" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E567" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F567" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G567" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H567" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I567" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J567" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K567" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L567" s="25">
+        <v>0</v>
+      </c>
+      <c r="M567" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N567" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O567" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L567=0,VLOOKUP(C567,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C567,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P567" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q567" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A568" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B568" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C568" s="3">
+        <v>3</v>
+      </c>
+      <c r="D568" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E568" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F568" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G568" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H568" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I568" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J568" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K568" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L568" s="25">
+        <v>0</v>
+      </c>
+      <c r="M568" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N568" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O568" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L568=0,VLOOKUP(C568,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C568,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P568" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q568" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D569" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E545" s="22"/>
-      <c r="F545" s="23"/>
-      <c r="G545" s="10"/>
-      <c r="J545" s="13"/>
-      <c r="K545" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E569" s="22"/>
+      <c r="F569" s="23"/>
+      <c r="G569" s="10"/>
+      <c r="J569" s="13"/>
+      <c r="K569" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L569" s="25"/>
+      <c r="M569" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L545" s="25"/>
-      <c r="M545" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N545" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O545" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N569" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O569" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L569=0,VLOOKUP(C569,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C569,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P569" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P545" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q545" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="546" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D546" s="12">
+      <c r="Q569" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D570" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E546" s="22"/>
-      <c r="F546" s="23"/>
-      <c r="G546" s="10"/>
-      <c r="J546" s="13"/>
-      <c r="K546" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E570" s="22"/>
+      <c r="F570" s="23"/>
+      <c r="G570" s="10"/>
+      <c r="J570" s="13"/>
+      <c r="K570" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L570" s="25"/>
+      <c r="M570" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L546" s="25"/>
-      <c r="M546" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N546" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O546" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N570" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O570" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L570=0,VLOOKUP(C570,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C570,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P570" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P546" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q546" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="547" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D547" s="12">
+      <c r="Q570" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D571" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E547" s="22"/>
-      <c r="F547" s="23"/>
-      <c r="G547" s="10"/>
-      <c r="J547" s="13"/>
-      <c r="K547" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E571" s="22"/>
+      <c r="F571" s="23"/>
+      <c r="G571" s="10"/>
+      <c r="J571" s="13"/>
+      <c r="K571" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L571" s="25"/>
+      <c r="M571" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L547" s="25"/>
-      <c r="M547" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N547" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O547" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N571" s="20" t="e">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O571" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L571=0,VLOOKUP(C571,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C571,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P571" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P547" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q547" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="548" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D548" s="12">
+      <c r="Q571" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D572" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E548" s="22"/>
-      <c r="F548" s="23"/>
-      <c r="G548" s="10"/>
-      <c r="J548" s="13"/>
-      <c r="K548" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E572" s="22"/>
+      <c r="F572" s="23"/>
+      <c r="G572" s="10"/>
+      <c r="J572" s="13"/>
+      <c r="K572" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L572" s="25"/>
+      <c r="M572" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L548" s="25"/>
-      <c r="M548" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N548" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O548" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N572" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O572" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L572=0,VLOOKUP(C572,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C572,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P572" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P548" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q548" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="549" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D549" s="12">
+      <c r="Q572" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D573" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E549" s="22"/>
-      <c r="F549" s="23"/>
-      <c r="G549" s="10"/>
-      <c r="J549" s="13"/>
-      <c r="K549" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E573" s="22"/>
+      <c r="F573" s="23"/>
+      <c r="G573" s="10"/>
+      <c r="J573" s="13"/>
+      <c r="K573" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L573" s="25"/>
+      <c r="M573" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L549" s="25"/>
-      <c r="M549" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N549" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O549" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N573" s="20" t="e">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O573" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L573=0,VLOOKUP(C573,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C573,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P573" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P549" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q549" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="550" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D550" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E550" s="22"/>
-      <c r="F550" s="23"/>
-      <c r="G550" s="10"/>
-      <c r="J550" s="13"/>
-      <c r="K550" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L550" s="25"/>
-      <c r="M550" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N550" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O550" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P550" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q550" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="551" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D551" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E551" s="22"/>
-      <c r="F551" s="23"/>
-      <c r="G551" s="10"/>
-      <c r="J551" s="13"/>
-      <c r="K551" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L551" s="25"/>
-      <c r="M551" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N551" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O551" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P551" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q551" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
+      <c r="Q573" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -35380,8 +36747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
   <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2021/FSARanking2021.xlsx
+++ b/2021/FSARanking2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190C2DC-085B-4F6A-B07D-5F9736F111AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7593170-84F1-4429-B056-E0E3DD32F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="1140" windowWidth="20550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="446">
   <si>
     <t>Ranking</t>
   </si>
@@ -1380,6 +1380,9 @@
   <si>
     <t>Northey</t>
   </si>
+  <si>
+    <t>National Champs</t>
+  </si>
 </sst>
 </file>
 
@@ -2160,8 +2163,8 @@
   <dimension ref="A1:Q573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E566" sqref="E566"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K577" sqref="K577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36559,143 +36562,239 @@
       </c>
     </row>
     <row r="569" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A569" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C569" s="3">
+        <v>6</v>
+      </c>
       <c r="D569" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E569" s="22"/>
-      <c r="F569" s="23"/>
-      <c r="G569" s="10"/>
-      <c r="J569" s="13"/>
-      <c r="K569" s="24" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L569" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="E569" s="22">
+        <v>44545</v>
+      </c>
+      <c r="F569" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G569" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H569" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I569" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J569" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K569" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L569" s="25">
+        <v>1</v>
+      </c>
       <c r="M569" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N569" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
-      <c r="O569" s="17" t="e">
+      <c r="O569" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L569=0,VLOOKUP(C569,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C569,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P569" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q569" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#VALUE!</v>
+        <v>14</v>
+      </c>
+      <c r="P569" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q569" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>19.599999999999998</v>
       </c>
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A570" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B570" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C570" s="3">
+        <v>5</v>
+      </c>
       <c r="D570" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E570" s="22"/>
-      <c r="F570" s="23"/>
-      <c r="G570" s="10"/>
-      <c r="J570" s="13"/>
-      <c r="K570" s="24" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L570" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="E570" s="22">
+        <v>44545</v>
+      </c>
+      <c r="F570" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G570" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H570" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I570" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J570" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K570" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L570" s="25">
+        <v>1</v>
+      </c>
       <c r="M570" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N570" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
-      <c r="O570" s="17" t="e">
+      <c r="O570" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L570=0,VLOOKUP(C570,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C570,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P570" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q570" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#VALUE!</v>
+        <v>14</v>
+      </c>
+      <c r="P570" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q570" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16.8</v>
       </c>
     </row>
     <row r="571" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A571" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B571" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C571" s="3">
+        <v>22</v>
+      </c>
       <c r="D571" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E571" s="22"/>
-      <c r="F571" s="23"/>
-      <c r="G571" s="10"/>
-      <c r="J571" s="13"/>
-      <c r="K571" s="24" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L571" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="E571" s="22">
+        <v>44545</v>
+      </c>
+      <c r="F571" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G571" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H571" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I571" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J571" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K571" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L571" s="25">
+        <v>1</v>
+      </c>
       <c r="M571" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N571" s="20" t="e">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O571" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="N571" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O571" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L571=0,VLOOKUP(C571,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C571,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P571" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q571" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#VALUE!</v>
+        <v>4</v>
+      </c>
+      <c r="P571" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q571" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
       </c>
     </row>
     <row r="572" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A572" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B572" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C572" s="3">
+        <v>6</v>
+      </c>
       <c r="D572" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E572" s="22"/>
-      <c r="F572" s="23"/>
-      <c r="G572" s="10"/>
-      <c r="J572" s="13"/>
-      <c r="K572" s="24" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L572" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="E572" s="22">
+        <v>44545</v>
+      </c>
+      <c r="F572" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G572" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H572" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I572" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J572" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K572" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L572" s="25">
+        <v>1</v>
+      </c>
       <c r="M572" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N572" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
-      <c r="O572" s="17" t="e">
+      <c r="O572" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L572=0,VLOOKUP(C572,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C572,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P572" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q572" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#VALUE!</v>
+        <v>14</v>
+      </c>
+      <c r="P572" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q572" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
       </c>
     </row>
     <row r="573" spans="1:17" x14ac:dyDescent="0.25">
@@ -36716,9 +36815,9 @@
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="N573" s="20" t="e">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>#VALUE!</v>
+      <c r="N573" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
       </c>
       <c r="O573" s="17" t="e">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L573=0,VLOOKUP(C573,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C573,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -45131,7 +45230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
